--- a/docs/qa/matrices/communication-email.xlsx
+++ b/docs/qa/matrices/communication-email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Documents\QA-Journey\CertifyHub-Tests\CertifyHub---Test-Strategy\docs\qa\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3480B1-9CB2-4B6C-8B57-78E7B98E3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D24803-34F1-43A1-886D-2050E25E71B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6A1F70D-DD27-4DBD-A810-A0A08D366CEF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -66,6 +66,81 @@
   </si>
   <si>
     <t>JIRA DEFECT ID(IF THERE IS)</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Verify Certificate delivery to receiver's Gmail.</t>
+  </si>
+  <si>
+    <t>The email containing the certificate is delivered to the receiver's Gmail inbox.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Click "Templates" in the sidebar. 
+3. Click "Reuse" your desired template. 
+4. Upload excel file containing the certificate reciever's appropriate data (Name, Gmail address) 
+5. Enable send Certificates. 
+6. Click Generate and Send. 
+7. Open your Gmail inbox and verify if received it or not. (Also check your spam inbox)</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Verify Certificate delivery to receiver's Yahoo/Outlook.</t>
+  </si>
+  <si>
+    <t>The email containing the certificate is delivered to the receiver's Yahoo/Outlook inbox.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Click "Templates" in the sidebar. 
+3. Click "Reuse" your desired template. 
+4. Upload excel file containing the certificate reciever's appropriate data (Name, Yaho/Outlook address)
+5. Enable send Certificates. 
+6. Click Generate and Send. 
+7. Open your mail inbox and verify if received it or not. (Also check your spam inbox)</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Verify the certificate file (PDF/Image) is attached to the email.</t>
+  </si>
+  <si>
+    <t>The File is attached to the email.</t>
+  </si>
+  <si>
+    <t>1. Login as Admin. 
+2. Click "Templates" in the sidebar. 
+3. Click "Reuse" your desired template. 
+4. Upload excel file containing the certificate reciever's appropriate data (Name, email) 
+5. Enable send Certificates. 
+6. Click Generate and Send. 
+7. Open your inbox and verify. (Also check your spam inbox)</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Verify the certificate attachment is not corrupted and opens correctly.</t>
+  </si>
+  <si>
+    <t>The File opens perfectly.</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Verify the "Sender Name" in the email matches the "CertifyHub" branding</t>
+  </si>
+  <si>
+    <t>The sender's name matches the "CertifyHub" branding.</t>
   </si>
 </sst>
 </file>
@@ -128,10 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,27 +548,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E1D032-4572-4826-B4CD-3DD8E0382E83}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
     <col min="8" max="8" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="33.21875" customWidth="1"/>
     <col min="10" max="10" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,6 +598,100 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:10" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
